--- a/data/source/Final_Data _추가_test_r2.0.xlsx
+++ b/data/source/Final_Data _추가_test_r2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Master\data\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3337DE-9E64-4AFD-BB99-E4EFC90B018A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AF5ADC-82A2-46D8-B47A-5E12DAF13395}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16260" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30" sheetId="1" r:id="rId1"/>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="L18">
         <f ca="1">G18*(RANDBETWEEN($L$28-1,$L$28+1)/100)</f>
-        <v>1064.3999999999999</v>
+        <v>1028.9199999999998</v>
       </c>
       <c r="M18">
         <f ca="1">G18*(RANDBETWEEN($M$28-1,$M$28+1)/100)</f>
-        <v>851.52</v>
+        <v>780.56000000000006</v>
       </c>
       <c r="N18">
         <f ca="1">G18*(RANDBETWEEN($N$28-1,$N$28+1)/100)</f>
@@ -1983,11 +1983,11 @@
       </c>
       <c r="P18">
         <f ca="1">SUM(I18:O18)</f>
-        <v>3441.5600000000004</v>
+        <v>3335.12</v>
       </c>
       <c r="R18">
         <f t="shared" ref="R18:R27" ca="1" si="2">G18-P18</f>
-        <v>106.4399999999996</v>
+        <v>212.88000000000011</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="J19">
         <f t="shared" ref="J19:J27" ca="1" si="4">G19*(RANDBETWEEN($J$28-1,$J$28+1)/100)</f>
-        <v>321.2</v>
+        <v>361.34999999999997</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19:K27" ca="1" si="5">G19*(RANDBETWEEN($K$28-1,$K$28+1)/100)</f>
@@ -2029,15 +2029,15 @@
       </c>
       <c r="L19">
         <f t="shared" ref="L19:L27" ca="1" si="6">G19*(RANDBETWEEN($L$28-1,$L$28+1)/100)</f>
-        <v>1164.3499999999999</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19:M27" ca="1" si="7">G19*(RANDBETWEEN($M$28-1,$M$28+1)/100)</f>
-        <v>923.45</v>
+        <v>963.59999999999991</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19:N27" ca="1" si="8">G19*(RANDBETWEEN($N$28-1,$N$28+1)/100)</f>
-        <v>401.5</v>
+        <v>441.65</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19:O27" ca="1" si="9">G19*(RANDBETWEEN($O$28-1,$O$28+1)/100)</f>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="P19">
         <f t="shared" ref="P19:P27" ca="1" si="10">SUM(I19:O19)</f>
-        <v>3854.4</v>
+        <v>4055.15</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="2"/>
-        <v>160.59999999999991</v>
+        <v>-40.150000000000091</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2083,15 +2083,15 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="4"/>
-        <v>376.40000000000003</v>
+        <v>423.45</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="5"/>
-        <v>1035.0999999999999</v>
+        <v>988.05</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="6"/>
-        <v>1364.4499999999998</v>
+        <v>1411.5</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="7"/>
@@ -2099,19 +2099,19 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="8"/>
-        <v>470.5</v>
+        <v>423.45</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="9"/>
-        <v>188.20000000000002</v>
+        <v>235.25</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="10"/>
-        <v>4563.8499999999995</v>
+        <v>4610.9000000000005</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="2"/>
-        <v>141.15000000000055</v>
+        <v>94.099999999999454</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -2145,23 +2145,23 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="4"/>
-        <v>468.96000000000004</v>
+        <v>527.57999999999993</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="5"/>
-        <v>1231.02</v>
+        <v>1289.6400000000001</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="6"/>
-        <v>1758.6</v>
+        <v>1817.22</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="7"/>
-        <v>1289.6400000000001</v>
+        <v>1406.8799999999999</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="8"/>
-        <v>527.57999999999993</v>
+        <v>644.82000000000005</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="9"/>
@@ -2169,11 +2169,11 @@
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="10"/>
-        <v>5568.9</v>
+        <v>5979.24</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="2"/>
-        <v>293.10000000000036</v>
+        <v>-117.23999999999978</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -2219,23 +2219,23 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="7"/>
-        <v>1650</v>
+        <v>1581.25</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="8"/>
-        <v>618.75</v>
+        <v>687.5</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="9"/>
-        <v>275</v>
+        <v>343.75</v>
       </c>
       <c r="P22">
         <f ca="1">SUM(I22:O22)</f>
-        <v>6806.25</v>
+        <v>6875</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="2"/>
-        <v>68.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="6"/>
-        <v>1917</v>
+        <v>1853.1</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="7"/>
-        <v>1469.7</v>
+        <v>1533.6</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="8"/>
-        <v>639</v>
+        <v>575.1</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="9"/>
-        <v>319.5</v>
+        <v>255.6</v>
       </c>
       <c r="P23">
         <f ca="1">SUM(I23:O23)</f>
-        <v>6262.2</v>
+        <v>6134.4000000000005</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="2"/>
-        <v>127.80000000000018</v>
+        <v>255.59999999999945</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="4"/>
-        <v>557.54999999999995</v>
+        <v>495.6</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="5"/>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="6"/>
-        <v>1920.45</v>
+        <v>1858.5</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="7"/>
@@ -2351,15 +2351,15 @@
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="9"/>
-        <v>309.75</v>
+        <v>247.8</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="10"/>
-        <v>6318.9000000000005</v>
+        <v>6133.05</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="2"/>
-        <v>-123.90000000000055</v>
+        <v>61.949999999999818</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2401,15 +2401,15 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="6"/>
-        <v>1444.1999999999998</v>
+        <v>1494</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="7"/>
-        <v>1145.4000000000001</v>
+        <v>1195.2</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="8"/>
-        <v>448.2</v>
+        <v>498</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="9"/>
@@ -2417,11 +2417,11 @@
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="10"/>
-        <v>4880.3999999999996</v>
+        <v>5029.8</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="2"/>
-        <v>99.600000000000364</v>
+        <v>-49.800000000000182</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
@@ -2455,19 +2455,19 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="4"/>
-        <v>467.46</v>
+        <v>415.52</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="5"/>
-        <v>1090.74</v>
+        <v>1142.68</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="6"/>
-        <v>1558.2</v>
+        <v>1506.26</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="7"/>
-        <v>1246.56</v>
+        <v>1194.6200000000001</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="8"/>
@@ -2479,11 +2479,11 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="10"/>
-        <v>5142.0599999999995</v>
+        <v>5038.18</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="2"/>
-        <v>51.940000000000509</v>
+        <v>155.81999999999971</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -2517,11 +2517,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="4"/>
-        <v>247.44</v>
+        <v>278.37</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="5"/>
-        <v>649.53</v>
+        <v>680.46</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="6"/>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="8"/>
-        <v>340.23</v>
+        <v>309.3</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="9"/>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="10"/>
-        <v>3062.0699999999997</v>
+        <v>3092.9999999999995</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="2"/>
-        <v>30.930000000000291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="M32">
         <f ca="1">G32*(RANDBETWEEN($M$42-1,$M$42+1)/100)</f>
-        <v>60.5</v>
+        <v>66</v>
       </c>
       <c r="N32">
         <f ca="1">G32*(RANDBETWEEN($N$42-1,$N$42+1)/100)</f>
@@ -2686,15 +2686,15 @@
       </c>
       <c r="O32">
         <f ca="1">G32*(RANDBETWEEN($O$42-1,$O$42+1)/100)</f>
-        <v>11</v>
+        <v>13.75</v>
       </c>
       <c r="P32">
         <f ca="1">SUM(I32:O32)</f>
-        <v>266.75</v>
+        <v>275</v>
       </c>
       <c r="R32">
         <f t="shared" ref="R32:R41" ca="1" si="11">G32-P32</f>
-        <v>8.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="K33">
         <f t="shared" ref="K33:K41" ca="1" si="14">G33*(RANDBETWEEN($K$42-1,$K$42+1)/100)</f>
-        <v>55.6</v>
+        <v>58.379999999999995</v>
       </c>
       <c r="L33">
         <f t="shared" ref="L33:L41" ca="1" si="15">G33*(RANDBETWEEN($L$42-1,$L$42+1)/100)</f>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="N33">
         <f t="shared" ref="N33:N41" ca="1" si="17">G33*(RANDBETWEEN($N$42-1,$N$42+1)/100)</f>
-        <v>25.02</v>
+        <v>27.8</v>
       </c>
       <c r="O33">
         <f t="shared" ref="O33:O41" ca="1" si="18">G33*(RANDBETWEEN($O$42-1,$O$42+1)/100)</f>
@@ -2752,11 +2752,11 @@
       </c>
       <c r="P33">
         <f t="shared" ref="P33:P41" ca="1" si="19">SUM(I33:O33)</f>
-        <v>264.10000000000002</v>
+        <v>269.66000000000003</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="11"/>
-        <v>13.899999999999977</v>
+        <v>8.339999999999975</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
@@ -2794,11 +2794,11 @@
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="14"/>
-        <v>58.71</v>
+        <v>61.800000000000004</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="15"/>
-        <v>108.14999999999999</v>
+        <v>111.24</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="16"/>
@@ -2810,15 +2810,15 @@
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="18"/>
-        <v>15.450000000000001</v>
+        <v>12.36</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="19"/>
-        <v>305.90999999999997</v>
+        <v>309</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0900000000000318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="16"/>
-        <v>67.320000000000007</v>
+        <v>70.38000000000001</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="17"/>
@@ -2876,11 +2876,11 @@
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="19"/>
-        <v>299.88000000000005</v>
+        <v>302.94000000000005</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1199999999999477</v>
+        <v>3.0599999999999454</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="14"/>
-        <v>83.79</v>
+        <v>88.2</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="15"/>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="16"/>
-        <v>105.83999999999999</v>
+        <v>97.02</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="17"/>
-        <v>39.69</v>
+        <v>44.1</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="18"/>
@@ -2984,15 +2984,15 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="15"/>
-        <v>153.34</v>
+        <v>157.85</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="16"/>
-        <v>99.22</v>
+        <v>108.24</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="17"/>
-        <v>49.61</v>
+        <v>40.589999999999996</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="18"/>
@@ -3000,11 +3000,11 @@
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="19"/>
-        <v>446.49000000000007</v>
+        <v>451</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="11"/>
-        <v>4.5099999999999341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -3042,15 +3042,15 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="14"/>
-        <v>80.2</v>
+        <v>76.19</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="15"/>
-        <v>140.35</v>
+        <v>144.35999999999999</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="16"/>
-        <v>88.22</v>
+        <v>96.24</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="17"/>
@@ -3062,11 +3062,11 @@
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="19"/>
-        <v>396.99000000000007</v>
+        <v>405.01</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0099999999999341</v>
+        <v>-4.0099999999999909</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -3116,19 +3116,19 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="17"/>
-        <v>31.46</v>
+        <v>25.74</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="18"/>
-        <v>11.44</v>
+        <v>14.3</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="19"/>
-        <v>283.14</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="11"/>
-        <v>2.8600000000000136</v>
+        <v>5.7199999999999704</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -3162,19 +3162,19 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="13"/>
-        <v>18.36</v>
+        <v>15.3</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="14"/>
-        <v>58.14</v>
+        <v>61.2</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="15"/>
-        <v>107.1</v>
+        <v>104.04</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="16"/>
-        <v>70.38000000000001</v>
+        <v>67.320000000000007</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="17"/>
@@ -3186,11 +3186,11 @@
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="19"/>
-        <v>302.94000000000005</v>
+        <v>296.82000000000005</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0599999999999454</v>
+        <v>9.17999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="14"/>
-        <v>51.3</v>
+        <v>54</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="15"/>
@@ -3240,19 +3240,19 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="17"/>
-        <v>27</v>
+        <v>29.7</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="18"/>
-        <v>13.5</v>
+        <v>10.8</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="19"/>
-        <v>270</v>
+        <v>272.7</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-2.6999999999999886</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
@@ -3370,11 +3370,11 @@
       </c>
       <c r="J46">
         <f ca="1">G46*(RANDBETWEEN($J$56-1,$J$56+1)/100)</f>
-        <v>15.6</v>
+        <v>19.5</v>
       </c>
       <c r="K46">
         <f ca="1">G46*(RANDBETWEEN($K$56-1,$K$56+1)/100)</f>
-        <v>19.5</v>
+        <v>23.4</v>
       </c>
       <c r="L46">
         <f ca="1">G46*(RANDBETWEEN($L$56-1,$L$56+1)/100)</f>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="M46">
         <f ca="1">G46*(RANDBETWEEN($M$56-1,$M$56+1)/100)</f>
-        <v>78</v>
+        <v>81.899999999999991</v>
       </c>
       <c r="N46">
         <f ca="1">G46*(RANDBETWEEN($N$56-1,$N$56+1)/100)</f>
@@ -3390,15 +3390,15 @@
       </c>
       <c r="O46">
         <f ca="1">G46*(RANDBETWEEN($O$56-1,$O$56+1)/100)</f>
-        <v>85.8</v>
+        <v>89.7</v>
       </c>
       <c r="P46">
         <f ca="1">SUM(I46:O46)</f>
-        <v>386.1</v>
+        <v>401.7</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46:R55" ca="1" si="20">G46-P46</f>
-        <v>3.8999999999999773</v>
+        <v>-11.699999999999989</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="J47">
         <f t="shared" ref="J47:J55" ca="1" si="22">G47*(RANDBETWEEN($J$56-1,$J$56+1)/100)</f>
-        <v>17.04</v>
+        <v>21.3</v>
       </c>
       <c r="K47">
         <f t="shared" ref="K47:K55" ca="1" si="23">G47*(RANDBETWEEN($K$56-1,$K$56+1)/100)</f>
@@ -3456,11 +3456,11 @@
       </c>
       <c r="P47">
         <f t="shared" ref="P47:P55" ca="1" si="28">SUM(I47:O47)</f>
-        <v>413.22</v>
+        <v>417.48</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="20"/>
-        <v>12.779999999999973</v>
+        <v>8.5199999999999818</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="24"/>
-        <v>41.300000000000004</v>
+        <v>37.17</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="25"/>
@@ -3510,19 +3510,19 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="26"/>
-        <v>144.54999999999998</v>
+        <v>148.68</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="27"/>
-        <v>99.11999999999999</v>
+        <v>94.990000000000009</v>
       </c>
       <c r="P48">
         <f ca="1">SUM(I48:O48)</f>
-        <v>417.13</v>
+        <v>413</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="20"/>
-        <v>-4.1299999999999955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="22"/>
-        <v>19.04</v>
+        <v>23.8</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="23"/>
@@ -3568,23 +3568,23 @@
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="25"/>
-        <v>99.96</v>
+        <v>90.44</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="26"/>
-        <v>171.35999999999999</v>
+        <v>161.84</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="27"/>
-        <v>104.72</v>
+        <v>114.24</v>
       </c>
       <c r="P49">
         <f t="shared" ca="1" si="28"/>
-        <v>466.48</v>
+        <v>461.72</v>
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="20"/>
-        <v>9.5199999999999818</v>
+        <v>14.279999999999973</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
@@ -3618,15 +3618,15 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="22"/>
-        <v>26.05</v>
+        <v>20.84</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="23"/>
-        <v>26.05</v>
+        <v>31.259999999999998</v>
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="24"/>
-        <v>57.31</v>
+        <v>46.89</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="25"/>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="27"/>
-        <v>114.62</v>
+        <v>125.03999999999999</v>
       </c>
       <c r="P50">
         <f t="shared" ca="1" si="28"/>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="22"/>
-        <v>29.5</v>
+        <v>23.6</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="23"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="24"/>
-        <v>64.900000000000006</v>
+        <v>59</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="25"/>
@@ -3700,15 +3700,15 @@
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="27"/>
-        <v>135.70000000000002</v>
+        <v>141.6</v>
       </c>
       <c r="P51">
         <f t="shared" ca="1" si="28"/>
-        <v>595.9</v>
+        <v>590</v>
       </c>
       <c r="R51">
         <f t="shared" ca="1" si="20"/>
-        <v>-5.8999999999999773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -3750,27 +3750,27 @@
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="24"/>
-        <v>38.519999999999996</v>
+        <v>42.800000000000004</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="25"/>
-        <v>81.320000000000007</v>
+        <v>85.600000000000009</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="26"/>
-        <v>145.52000000000001</v>
+        <v>154.07999999999998</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="27"/>
-        <v>102.72</v>
+        <v>94.16</v>
       </c>
       <c r="P52">
         <f t="shared" ca="1" si="28"/>
-        <v>419.44000000000005</v>
+        <v>428</v>
       </c>
       <c r="R52">
         <f t="shared" ca="1" si="20"/>
-        <v>8.5599999999999454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="22"/>
-        <v>16.080000000000002</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="23"/>
@@ -3816,23 +3816,23 @@
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="25"/>
-        <v>76.38</v>
+        <v>84.42</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="26"/>
-        <v>136.68</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="27"/>
-        <v>92.460000000000008</v>
+        <v>96.47999999999999</v>
       </c>
       <c r="P53">
         <f t="shared" ca="1" si="28"/>
-        <v>381.9</v>
+        <v>402</v>
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="20"/>
-        <v>20.100000000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
@@ -3882,19 +3882,19 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="26"/>
-        <v>140.76000000000002</v>
+        <v>144.89999999999998</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="27"/>
-        <v>95.22</v>
+        <v>99.36</v>
       </c>
       <c r="P54">
         <f t="shared" ca="1" si="28"/>
-        <v>397.44000000000005</v>
+        <v>405.72</v>
       </c>
       <c r="R54">
         <f t="shared" ca="1" si="20"/>
-        <v>16.559999999999945</v>
+        <v>8.2799999999999727</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -3928,15 +3928,15 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="22"/>
-        <v>19.600000000000001</v>
+        <v>15.68</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="23"/>
-        <v>23.52</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="24"/>
-        <v>35.28</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="25"/>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="26"/>
-        <v>141.12</v>
+        <v>133.28</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="27"/>
@@ -3952,11 +3952,11 @@
       </c>
       <c r="P55">
         <f t="shared" ca="1" si="28"/>
-        <v>388.08000000000004</v>
+        <v>376.32</v>
       </c>
       <c r="R55">
         <f t="shared" ca="1" si="20"/>
-        <v>3.9199999999999591</v>
+        <v>15.680000000000007</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
@@ -4082,11 +4082,11 @@
       </c>
       <c r="L60">
         <f ca="1">G60*(RANDBETWEEN($L$70-1,$L$70+1)/100)</f>
-        <v>72.36</v>
+        <v>68.34</v>
       </c>
       <c r="M60">
         <f ca="1">G60*(RANDBETWEEN($M$70-1,$M$70+1)/100)</f>
-        <v>144.72</v>
+        <v>136.68</v>
       </c>
       <c r="N60">
         <f ca="1">G60*(RANDBETWEEN($N$70-1,$N$70+1)/100)</f>
@@ -4094,15 +4094,15 @@
       </c>
       <c r="O60">
         <f ca="1">G60*(RANDBETWEEN($O$70-1,$O$70+1)/100)</f>
-        <v>56.280000000000008</v>
+        <v>60.3</v>
       </c>
       <c r="P60">
         <f ca="1">SUM(I60:O60)</f>
-        <v>397.98</v>
+        <v>389.94</v>
       </c>
       <c r="R60">
         <f t="shared" ref="R60:R69" ca="1" si="29">G60-P60</f>
-        <v>4.0199999999999818</v>
+        <v>12.060000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
@@ -4148,11 +4148,11 @@
       </c>
       <c r="M61">
         <f t="shared" ref="M61:M69" ca="1" si="34">G61*(RANDBETWEEN($M$70-1,$M$70+1)/100)</f>
-        <v>226.78000000000003</v>
+        <v>233.45</v>
       </c>
       <c r="N61">
         <f t="shared" ref="N61:N69" ca="1" si="35">G61*(RANDBETWEEN($N$70-1,$N$70+1)/100)</f>
-        <v>126.73</v>
+        <v>140.07</v>
       </c>
       <c r="O61">
         <f t="shared" ref="O61:O69" ca="1" si="36">G61*(RANDBETWEEN($O$70-1,$O$70+1)/100)</f>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="P61">
         <f t="shared" ref="P61:P69" ca="1" si="37">SUM(I61:O61)</f>
-        <v>646.99</v>
+        <v>666.99999999999989</v>
       </c>
       <c r="R61">
         <f t="shared" ca="1" si="29"/>
-        <v>20.009999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="31"/>
-        <v>18.96</v>
+        <v>23.700000000000003</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="32"/>
@@ -4206,27 +4206,27 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="33"/>
-        <v>75.84</v>
+        <v>85.32</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="34"/>
-        <v>161.16000000000003</v>
+        <v>165.89999999999998</v>
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="35"/>
-        <v>94.800000000000011</v>
+        <v>99.539999999999992</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="36"/>
-        <v>66.36</v>
+        <v>75.84</v>
       </c>
       <c r="P62">
         <f t="shared" ca="1" si="37"/>
-        <v>445.56000000000006</v>
+        <v>478.74</v>
       </c>
       <c r="R62">
         <f t="shared" ca="1" si="29"/>
-        <v>28.439999999999941</v>
+        <v>-4.7400000000000091</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
@@ -4264,11 +4264,11 @@
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="32"/>
-        <v>39.42</v>
+        <v>32.85</v>
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="33"/>
-        <v>105.12</v>
+        <v>111.69000000000001</v>
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="34"/>
@@ -4276,19 +4276,19 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="35"/>
-        <v>124.83</v>
+        <v>131.4</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="36"/>
-        <v>105.12</v>
+        <v>98.55</v>
       </c>
       <c r="P63">
         <f t="shared" ca="1" si="37"/>
-        <v>650.43000000000006</v>
+        <v>650.42999999999995</v>
       </c>
       <c r="R63">
         <f t="shared" ca="1" si="29"/>
-        <v>6.5699999999999363</v>
+        <v>6.57000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="32"/>
-        <v>40.619999999999997</v>
+        <v>33.85</v>
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="33"/>
@@ -4334,11 +4334,11 @@
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="34"/>
-        <v>236.95</v>
+        <v>243.72</v>
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="35"/>
-        <v>135.4</v>
+        <v>142.16999999999999</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="36"/>
@@ -4346,11 +4346,11 @@
       </c>
       <c r="P64">
         <f t="shared" ca="1" si="37"/>
-        <v>649.91999999999996</v>
+        <v>656.68999999999994</v>
       </c>
       <c r="R64">
         <f t="shared" ca="1" si="29"/>
-        <v>27.080000000000041</v>
+        <v>20.310000000000059</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -4384,35 +4384,35 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="31"/>
-        <v>34.15</v>
+        <v>27.32</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="32"/>
-        <v>40.98</v>
+        <v>34.15</v>
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="33"/>
-        <v>116.11000000000001</v>
+        <v>109.28</v>
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="34"/>
-        <v>245.88</v>
+        <v>239.04999999999998</v>
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="35"/>
-        <v>129.77000000000001</v>
+        <v>143.43</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="36"/>
-        <v>102.45</v>
+        <v>109.28</v>
       </c>
       <c r="P65">
         <f t="shared" ca="1" si="37"/>
-        <v>676.17000000000007</v>
+        <v>669.33999999999992</v>
       </c>
       <c r="R65">
         <f t="shared" ca="1" si="29"/>
-        <v>6.8299999999999272</v>
+        <v>13.660000000000082</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -4450,31 +4450,31 @@
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="32"/>
-        <v>30.72</v>
+        <v>25.6</v>
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="33"/>
-        <v>81.92</v>
+        <v>87.04</v>
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="34"/>
-        <v>174.08</v>
+        <v>179.2</v>
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="35"/>
-        <v>107.52</v>
+        <v>102.4</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="36"/>
-        <v>71.680000000000007</v>
+        <v>76.8</v>
       </c>
       <c r="P66">
         <f t="shared" ca="1" si="37"/>
-        <v>496.64000000000004</v>
+        <v>501.76000000000005</v>
       </c>
       <c r="R66">
         <f t="shared" ca="1" si="29"/>
-        <v>15.359999999999957</v>
+        <v>10.239999999999952</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="31"/>
-        <v>26.2</v>
+        <v>32.75</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="32"/>
@@ -4516,15 +4516,15 @@
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="33"/>
-        <v>111.35000000000001</v>
+        <v>117.89999999999999</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="34"/>
-        <v>222.70000000000002</v>
+        <v>229.24999999999997</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="35"/>
-        <v>137.54999999999998</v>
+        <v>124.45</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="36"/>
@@ -4532,11 +4532,11 @@
       </c>
       <c r="P67">
         <f t="shared" ca="1" si="37"/>
-        <v>635.35</v>
+        <v>641.90000000000009</v>
       </c>
       <c r="R67">
         <f t="shared" ca="1" si="29"/>
-        <v>19.649999999999977</v>
+        <v>13.099999999999909</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="31"/>
-        <v>28</v>
+        <v>22.400000000000002</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="32"/>
@@ -4582,23 +4582,23 @@
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="34"/>
-        <v>190.4</v>
+        <v>196</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="35"/>
-        <v>117.6</v>
+        <v>112</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="36"/>
-        <v>89.600000000000009</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="P68">
         <f t="shared" ca="1" si="37"/>
-        <v>554.40000000000009</v>
+        <v>537.6</v>
       </c>
       <c r="R68">
         <f t="shared" ca="1" si="29"/>
-        <v>5.5999999999999091</v>
+        <v>22.399999999999977</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="31"/>
-        <v>21.450000000000003</v>
+        <v>17.16</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="32"/>
@@ -4644,23 +4644,23 @@
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="34"/>
-        <v>145.86000000000001</v>
+        <v>150.14999999999998</v>
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="35"/>
-        <v>81.510000000000005</v>
+        <v>90.09</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="36"/>
-        <v>60.06</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="P69">
         <f t="shared" ca="1" si="37"/>
-        <v>416.13</v>
+        <v>429</v>
       </c>
       <c r="R69">
         <f t="shared" ca="1" si="29"/>
-        <v>12.870000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
@@ -8653,10 +8653,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BAFF92-DA75-4E91-A1E0-3063E99BCB76}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I16"/>
+    <sheetView tabSelected="1" topLeftCell="D37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55:X67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8665,12 +8665,12 @@
     <col min="10" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>19308.2</v>
       </c>
@@ -8774,8 +8774,36 @@
       <c r="P4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <f>J4/$I4</f>
+        <v>1.1479591836734694E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:AB16" si="0">K4/$I4</f>
+        <v>8.673469387755102E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0.22704081632653061</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.30867346938775508</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0.22959183673469388</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>9.5663265306122444E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>4.0816326530612242E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>18037.599999999999</v>
       </c>
@@ -8821,8 +8849,36 @@
       <c r="P5">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <f t="shared" ref="R5:R16" si="1">J5/$I5</f>
+        <v>1.7329255861365953E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>7.8491335372069315E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.20489296636085627</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0.31804281345565749</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0.25993883792048927</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>8.6646279306829763E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>3.4658511722731905E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>20021.599999999999</v>
       </c>
@@ -8868,8 +8924,36 @@
       <c r="P6">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>1.2970168612191959E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>7.6523994811932561E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.21789883268482491</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0.30998702983138782</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0.24254215304798962</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>9.4682230869001294E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>3.7613488975356678E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>17852.8</v>
       </c>
@@ -8915,8 +8999,36 @@
       <c r="P7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>1.3071895424836602E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.10021786492374728</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0.19281045751633988</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0.30718954248366015</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0.25163398692810457</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>9.9128540305010893E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>3.2679738562091505E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>19825</v>
       </c>
@@ -8962,8 +9074,36 @@
       <c r="P8">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>1.3011152416356878E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>9.0148698884758363E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.20353159851301114</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.30390334572490707</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0.24349442379182157</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0.10130111524163568</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>3.62453531598513E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>18605</v>
       </c>
@@ -9009,8 +9149,36 @@
       <c r="P9">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>9.017132551848512E-3</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>9.8286744815148777E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.20108205590622183</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.29666366095581603</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0.25518485121731288</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0.1036970243462579</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>3.2461677186654644E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>19842.990000000002</v>
       </c>
@@ -9056,8 +9224,36 @@
       <c r="P10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>1.756311745334797E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>9.989023051591657E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0.20197585071350166</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0.29418221734357847</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0.23819978046103182</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>9.4401756311745341E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>3.2930845225027441E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>14927</v>
       </c>
@@ -9103,8 +9299,36 @@
       <c r="P11">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>7.470651013874066E-3</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>9.9252934898612588E-2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.20277481323372465</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0.31483457844183566</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>0.24653148345784417</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>9.6051227321237997E-2</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>3.3084311632870865E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>12498.2</v>
       </c>
@@ -9150,8 +9374,36 @@
       <c r="P12">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>1.7006802721088437E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>9.297052154195011E-2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0.21655328798185941</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0.28684807256235828</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0.25623582766439912</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>9.8639455782312924E-2</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>3.1746031746031744E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10176.6</v>
       </c>
@@ -9197,8 +9449,36 @@
       <c r="P13">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>1.5536723163841809E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>9.03954802259887E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.20621468926553671</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0.29943502824858759</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>0.2655367231638418</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>9.4632768361581923E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>2.6836158192090395E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -9247,8 +9527,36 @@
       <c r="P14">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>1.3348164627363738E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>8.7875417130144601E-2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.19021134593993325</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.33481646273637372</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.23581757508342602</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>3.5595105672969966E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -9297,8 +9605,36 @@
       <c r="P15">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>1.3918629550321198E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>8.9935760171306209E-2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0.20342612419700215</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0.28693790149892934</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0.25910064239828695</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>9.7430406852248394E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>3.5331905781584586E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -9347,13 +9683,41 @@
       <c r="P16">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>1.2725344644750796E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>8.2714740190880168E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0.2046659597030753</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0.3213149522799576</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0.23435843054082714</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>0.1007423117709438</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>3.3934252386002124E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="J19" s="1" t="s">
         <v>27</v>
       </c>
@@ -9364,7 +9728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -9411,7 +9775,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19308.2</v>
       </c>
@@ -9457,8 +9821,36 @@
       <c r="P21">
         <v>177.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <f>J21/$I21</f>
+        <v>1.0005636978579481E-2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21:X21" si="2">K21/$I21</f>
+        <v>7.9988726042841046E-2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>0.22001127395715897</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>0.22998872604284104</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18037.599999999999</v>
       </c>
@@ -9504,8 +9896,36 @@
       <c r="P22">
         <v>160.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <f t="shared" ref="R22:R33" si="3">J22/$I22</f>
+        <v>1.0012453300124534E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S33" si="4">K22/$I22</f>
+        <v>9.0012453300124529E-2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:T33" si="5">L22/$I22</f>
+        <v>0.21001245330012455</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ref="U22:U33" si="6">M22/$I22</f>
+        <v>0.29001245330012454</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ref="V22:V33" si="7">N22/$I22</f>
+        <v>0.23001245330012454</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ref="W22:W33" si="8">O22/$I22</f>
+        <v>0.1</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22:X33" si="9">P22/$I22</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20021.599999999999</v>
       </c>
@@ -9551,8 +9971,36 @@
       <c r="P23">
         <v>140.19999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>1.0010626992561106E-2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>0.23001062699256111</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="6"/>
+        <v>0.3100106269925611</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="7"/>
+        <v>0.23001062699256111</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="8"/>
+        <v>0.11001062699256112</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="9"/>
+        <v>2.9798087141338997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>17852.8</v>
       </c>
@@ -9598,8 +10046,36 @@
       <c r="P24">
         <v>234.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>9.9965881951552382E-3</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>9.0003411804844766E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="5"/>
+        <v>0.20999658819515524</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="6"/>
+        <v>0.30999658819515524</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="7"/>
+        <v>0.21999317639031046</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="8"/>
+        <v>9.0003411804844766E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="9"/>
+        <v>4.0003411804844763E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>19825</v>
       </c>
@@ -9645,8 +10121,36 @@
       <c r="P25">
         <v>343.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>1.0007272727272727E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>0.23000727272727273</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="6"/>
+        <v>0.29000727272727272</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="7"/>
+        <v>0.23000727272727273</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="8"/>
+        <v>0.11000727272727272</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="9"/>
+        <v>4.9963636363636363E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>18605</v>
       </c>
@@ -9692,8 +10196,36 @@
       <c r="P26">
         <v>319.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>0.22</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>0.23</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>19842.990000000002</v>
       </c>
@@ -9739,8 +10271,36 @@
       <c r="P27">
         <v>185.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>1.0008071025020177E-2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>0.23000807102502019</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="6"/>
+        <v>0.3100080710250202</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="7"/>
+        <v>0.23000807102502019</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="8"/>
+        <v>0.11000807102502018</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="9"/>
+        <v>2.9991928974979824E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>14927</v>
       </c>
@@ -9786,8 +10346,36 @@
       <c r="P28">
         <v>249</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>0.23</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="7"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="9"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>12498.2</v>
       </c>
@@ -9833,8 +10421,36 @@
       <c r="P29">
         <v>207.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>9.9922988063149785E-3</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>7.9996149403157496E-2</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>0.20999229880631498</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="6"/>
+        <v>0.29000770119368502</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="7"/>
+        <v>0.240007701193685</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="8"/>
+        <v>0.10999229880631498</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="9"/>
+        <v>4.0007701193685026E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>10176.6</v>
       </c>
@@ -9880,8 +10496,36 @@
       <c r="P30">
         <v>154.69999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>9.9903006789524729E-3</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>7.9987067571936632E-2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="5"/>
+        <v>0.23000323310701584</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="6"/>
+        <v>0.29000969932104753</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="7"/>
+        <v>0.23000323310701584</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="8"/>
+        <v>0.10999030067895246</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="9"/>
+        <v>5.0016165535079204E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -9930,8 +10574,36 @@
       <c r="P31">
         <v>215.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>9.0096531998569897E-3</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>8.0657847693957813E-2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="5"/>
+        <v>0.21001072577761887</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="6"/>
+        <v>0.26959242045048265</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="7"/>
+        <v>0.22266714336789414</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="8"/>
+        <v>0.10175187701108331</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="9"/>
+        <v>3.8451912763675364E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -9980,8 +10652,36 @@
       <c r="P32">
         <v>236.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>9.7884163282752727E-3</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>8.2923701645650785E-2</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="5"/>
+        <v>0.23419534088480443</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="6"/>
+        <v>0.35486215003205818</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="7"/>
+        <v>0.22391536653131011</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="8"/>
+        <v>0.11057918358623638</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="9"/>
+        <v>5.0630476597563583E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -10030,13 +10730,41 @@
       <c r="P33">
         <v>232.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>1.0115796373170198E-2</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>8.7524579418833306E-2</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="5"/>
+        <v>0.227070133275071</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="6"/>
+        <v>0.33948000873934892</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="7"/>
+        <v>0.2467118199694123</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="8"/>
+        <v>0.10513436748962202</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="9"/>
+        <v>5.0797465588813637E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J36" s="1" t="s">
         <v>29</v>
       </c>
@@ -10047,7 +10775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>49</v>
       </c>
@@ -10094,7 +10822,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>19308.2</v>
       </c>
@@ -10140,8 +10868,40 @@
       <c r="P38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <f>J38/$I38</f>
+        <v>1.090909090909091E-2</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:X38" si="10">K38/$I38</f>
+        <v>5.0909090909090911E-2</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="10"/>
+        <v>0.18909090909090909</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="10"/>
+        <v>0.34909090909090912</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="10"/>
+        <v>0.22181818181818183</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="10"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="10"/>
+        <v>5.0909090909090911E-2</v>
+      </c>
+      <c r="Z38">
+        <f>I38/C38</f>
+        <v>3.9285714285714285E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>18037.599999999999</v>
       </c>
@@ -10187,8 +10947,40 @@
       <c r="P39">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <f t="shared" ref="R39:R50" si="11">J39/$I39</f>
+        <v>1.0791366906474821E-2</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ref="S39:S50" si="12">K39/$I39</f>
+        <v>5.0359712230215826E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" ref="T39:T50" si="13">L39/$I39</f>
+        <v>0.1906474820143885</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ref="U39:U50" si="14">M39/$I39</f>
+        <v>0.34172661870503596</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ref="V39:V50" si="15">N39/$I39</f>
+        <v>0.21942446043165467</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ref="W39:W50" si="16">O39/$I39</f>
+        <v>0.11151079136690648</v>
+      </c>
+      <c r="X39">
+        <f t="shared" ref="X39:X50" si="17">P39/$I39</f>
+        <v>5.0359712230215826E-2</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" ref="Z39:Z50" si="18">I39/C39</f>
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>20021.599999999999</v>
       </c>
@@ -10234,8 +11026,40 @@
       <c r="P40">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <f t="shared" si="11"/>
+        <v>9.7087378640776691E-3</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="12"/>
+        <v>4.8543689320388349E-2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="13"/>
+        <v>0.19093851132686085</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="14"/>
+        <v>0.33980582524271846</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="15"/>
+        <v>0.23948220064724918</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="16"/>
+        <v>0.10032362459546926</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="17"/>
+        <v>4.8543689320388349E-2</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="18"/>
+        <v>4.7538461538461536E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>17852.8</v>
       </c>
@@ -10281,8 +11105,40 @@
       <c r="P41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R41">
+        <f t="shared" si="11"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="12"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="13"/>
+        <v>0.20915032679738563</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="14"/>
+        <v>0.35947712418300654</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="15"/>
+        <v>0.22875816993464052</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="16"/>
+        <v>9.1503267973856203E-2</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="17"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="18"/>
+        <v>2.110344827586207E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>19825</v>
       </c>
@@ -10328,8 +11184,40 @@
       <c r="P42">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R42">
+        <f t="shared" si="11"/>
+        <v>9.0702947845804991E-3</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="12"/>
+        <v>4.9886621315192746E-2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="13"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="14"/>
+        <v>0.3401360544217687</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="15"/>
+        <v>0.22902494331065759</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="16"/>
+        <v>9.0702947845804988E-2</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="17"/>
+        <v>4.0816326530612242E-2</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="18"/>
+        <v>1.378125E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>18605</v>
       </c>
@@ -10375,8 +11263,40 @@
       <c r="P43">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R43">
+        <f t="shared" si="11"/>
+        <v>1.1086474501108648E-2</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="12"/>
+        <v>5.0997782705099776E-2</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="13"/>
+        <v>0.19068736141906872</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="14"/>
+        <v>0.35033259423503327</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="15"/>
+        <v>0.23946784922394679</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="16"/>
+        <v>9.9778270509977826E-2</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="17"/>
+        <v>3.9911308203991129E-2</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="18"/>
+        <v>1.203372645285234E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>19842.990000000002</v>
       </c>
@@ -10422,8 +11342,40 @@
       <c r="P44">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <f t="shared" si="11"/>
+        <v>9.9750623441396506E-3</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="12"/>
+        <v>4.9875311720698257E-2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="13"/>
+        <v>0.19950124688279303</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="14"/>
+        <v>0.35910224438902744</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="15"/>
+        <v>0.23940149625935161</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="16"/>
+        <v>0.10972568578553615</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="17"/>
+        <v>2.7431421446384038E-2</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="18"/>
+        <v>2.8642857142857144E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>14927</v>
       </c>
@@ -10469,8 +11421,40 @@
       <c r="P45">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <f t="shared" si="11"/>
+        <v>1.048951048951049E-2</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="12"/>
+        <v>4.8951048951048952E-2</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="13"/>
+        <v>0.1888111888111888</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="14"/>
+        <v>0.33916083916083917</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="15"/>
+        <v>0.24125874125874125</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="16"/>
+        <v>0.10839160839160839</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="17"/>
+        <v>4.8951048951048952E-2</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="18"/>
+        <v>1.7874999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>12498.2</v>
       </c>
@@ -10516,8 +11500,40 @@
       <c r="P46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <f t="shared" si="11"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="12"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="13"/>
+        <v>0.20915032679738563</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="14"/>
+        <v>0.35947712418300654</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="15"/>
+        <v>0.23856209150326799</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="16"/>
+        <v>0.10130718954248366</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="17"/>
+        <v>1.6339869281045753E-2</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="18"/>
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>10176.6</v>
       </c>
@@ -10563,8 +11579,40 @@
       <c r="P47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <f t="shared" si="11"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="12"/>
+        <v>5.9259259259259262E-2</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="13"/>
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="14"/>
+        <v>0.35925925925925928</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="15"/>
+        <v>0.24074074074074073</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="16"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="17"/>
+        <v>2.9629629629629631E-2</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="18"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -10613,8 +11661,40 @@
       <c r="P48">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <f t="shared" si="11"/>
+        <v>8.7463556851311956E-3</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="12"/>
+        <v>4.6647230320699708E-2</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="13"/>
+        <v>0.20699708454810495</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="14"/>
+        <v>0.36443148688046645</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="15"/>
+        <v>0.24489795918367346</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="16"/>
+        <v>9.0379008746355682E-2</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="17"/>
+        <v>3.7900874635568516E-2</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="18"/>
+        <v>2.1128495749661205E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -10663,8 +11743,40 @@
       <c r="P49">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <f t="shared" si="11"/>
+        <v>8.4507042253521118E-3</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="12"/>
+        <v>5.3521126760563378E-2</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="13"/>
+        <v>0.17746478873239438</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="14"/>
+        <v>0.3267605633802817</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="15"/>
+        <v>0.23661971830985915</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="16"/>
+        <v>0.10140845070422536</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="17"/>
+        <v>3.9436619718309862E-2</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="18"/>
+        <v>2.1648981583119894E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -10713,13 +11825,45 @@
       <c r="P50">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <f t="shared" si="11"/>
+        <v>1.2012012012012012E-2</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="12"/>
+        <v>5.7057057057057055E-2</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="13"/>
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="14"/>
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="15"/>
+        <v>0.23723723723723725</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="16"/>
+        <v>9.90990990990991E-2</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="17"/>
+        <v>4.2042042042042045E-2</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="18"/>
+        <v>1.8802936194240543E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J53" s="1" t="s">
         <v>33</v>
       </c>
@@ -10730,7 +11874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>49</v>
       </c>
@@ -10777,7 +11921,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>19308.2</v>
       </c>
@@ -10823,8 +11967,40 @@
       <c r="P55">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R55">
+        <f>J55/$I55</f>
+        <v>1.0256410256410256E-2</v>
+      </c>
+      <c r="S55">
+        <f t="shared" ref="S55:X55" si="19">K55/$I55</f>
+        <v>4.1025641025641026E-2</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="19"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="19"/>
+        <v>8.9743589743589744E-2</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="19"/>
+        <v>0.2</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="19"/>
+        <v>0.34102564102564104</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="19"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="Z55">
+        <f>I55/C55</f>
+        <v>5.5714285714285716E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>18037.599999999999</v>
       </c>
@@ -10870,8 +12046,40 @@
       <c r="P56">
         <v>89</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R56">
+        <f t="shared" ref="R56:R67" si="20">J56/$I56</f>
+        <v>9.3896713615023476E-3</v>
+      </c>
+      <c r="S56">
+        <f t="shared" ref="S56:S67" si="21">K56/$I56</f>
+        <v>3.9906103286384977E-2</v>
+      </c>
+      <c r="T56">
+        <f t="shared" ref="T56:T67" si="22">L56/$I56</f>
+        <v>6.1032863849765258E-2</v>
+      </c>
+      <c r="U56">
+        <f t="shared" ref="U56:U67" si="23">M56/$I56</f>
+        <v>0.11032863849765258</v>
+      </c>
+      <c r="V56">
+        <f t="shared" ref="V56:V67" si="24">N56/$I56</f>
+        <v>0.20892018779342722</v>
+      </c>
+      <c r="W56">
+        <f t="shared" ref="W56:W67" si="25">O56/$I56</f>
+        <v>0.35915492957746481</v>
+      </c>
+      <c r="X56">
+        <f t="shared" ref="X56:X67" si="26">P56/$I56</f>
+        <v>0.20892018779342722</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" ref="Z56:Z67" si="27">I56/C56</f>
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>20021.599999999999</v>
       </c>
@@ -10917,8 +12125,40 @@
       <c r="P57">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R57">
+        <f t="shared" si="20"/>
+        <v>9.6852300242130755E-3</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="21"/>
+        <v>4.1162227602905568E-2</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="22"/>
+        <v>6.0532687651331719E-2</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="23"/>
+        <v>9.9273607748184015E-2</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="24"/>
+        <v>0.2009685230024213</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="25"/>
+        <v>0.33898305084745761</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="26"/>
+        <v>0.23002421307506055</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="27"/>
+        <v>6.3538461538461544E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>17852.8</v>
       </c>
@@ -10964,8 +12204,40 @@
       <c r="P58">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R58">
+        <f t="shared" si="20"/>
+        <v>1.050420168067227E-2</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="21"/>
+        <v>3.9915966386554619E-2</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="22"/>
+        <v>5.0420168067226892E-2</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="23"/>
+        <v>0.10084033613445378</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="24"/>
+        <v>0.19957983193277312</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="25"/>
+        <v>0.35084033613445376</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="26"/>
+        <v>0.22899159663865545</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="27"/>
+        <v>3.2827586206896554E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>19825</v>
       </c>
@@ -11011,8 +12283,40 @@
       <c r="P59">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R59">
+        <f t="shared" si="20"/>
+        <v>9.5969289827255271E-3</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="21"/>
+        <v>4.9904030710172742E-2</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="22"/>
+        <v>4.9904030710172742E-2</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="23"/>
+        <v>9.9808061420345484E-2</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="24"/>
+        <v>0.19961612284069097</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="25"/>
+        <v>0.33973128598848368</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="26"/>
+        <v>0.23032629558541268</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="27"/>
+        <v>1.6281250000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>18605</v>
       </c>
@@ -11058,8 +12362,40 @@
       <c r="P60">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R60">
+        <f t="shared" si="20"/>
+        <v>1.0169491525423728E-2</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="21"/>
+        <v>5.0847457627118647E-2</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="22"/>
+        <v>5.9322033898305086E-2</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="23"/>
+        <v>0.11016949152542373</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="24"/>
+        <v>0.21016949152542372</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="25"/>
+        <v>0.35084745762711866</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="26"/>
+        <v>0.20847457627118643</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="27"/>
+        <v>1.5742568973797961E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>19842.990000000002</v>
       </c>
@@ -11105,8 +12441,40 @@
       <c r="P61">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R61">
+        <f t="shared" si="20"/>
+        <v>9.3457943925233638E-3</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="21"/>
+        <v>3.9719626168224297E-2</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="22"/>
+        <v>4.9065420560747662E-2</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="23"/>
+        <v>0.10981308411214953</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="24"/>
+        <v>0.18925233644859812</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="25"/>
+        <v>0.35046728971962615</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="26"/>
+        <v>0.22897196261682243</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="27"/>
+        <v>3.0571428571428572E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>14927</v>
       </c>
@@ -11152,8 +12520,40 @@
       <c r="P62">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R62">
+        <f t="shared" si="20"/>
+        <v>9.9502487562189053E-3</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="21"/>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="22"/>
+        <v>5.9701492537313432E-2</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="23"/>
+        <v>0.10945273631840796</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="24"/>
+        <v>0.20895522388059701</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="25"/>
+        <v>0.36069651741293535</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="26"/>
+        <v>0.19651741293532338</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="27"/>
+        <v>2.5125000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>12498.2</v>
       </c>
@@ -11199,8 +12599,40 @@
       <c r="P63">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R63">
+        <f t="shared" si="20"/>
+        <v>9.6618357487922701E-3</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="21"/>
+        <v>5.0724637681159424E-2</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="22"/>
+        <v>6.0386473429951688E-2</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="23"/>
+        <v>8.9371980676328497E-2</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="24"/>
+        <v>0.21014492753623187</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="25"/>
+        <v>0.35990338164251207</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="26"/>
+        <v>0.21980676328502416</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="27"/>
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>10176.6</v>
       </c>
@@ -11246,8 +12678,40 @@
       <c r="P64">
         <v>94</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R64">
+        <f t="shared" si="20"/>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="21"/>
+        <v>5.1020408163265307E-2</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="22"/>
+        <v>5.1020408163265307E-2</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="23"/>
+        <v>9.9489795918367346E-2</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="24"/>
+        <v>0.19897959183673469</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="25"/>
+        <v>0.34948979591836737</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="26"/>
+        <v>0.23979591836734693</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="27"/>
+        <v>8.7111111111111111E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -11296,8 +12760,40 @@
       <c r="P65">
         <v>93</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R65">
+        <f t="shared" si="20"/>
+        <v>9.324009324009324E-3</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="21"/>
+        <v>4.6620046620046623E-2</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="22"/>
+        <v>5.3613053613053616E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="23"/>
+        <v>9.5571095571095568E-2</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="24"/>
+        <v>0.20745920745920746</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="25"/>
+        <v>0.34965034965034963</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="26"/>
+        <v>0.21678321678321677</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="27"/>
+        <v>2.6426019465319698E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -11346,8 +12842,40 @@
       <c r="P66">
         <v>101</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R66">
+        <f t="shared" si="20"/>
+        <v>1.0940919037199124E-2</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="21"/>
+        <v>4.1575492341356671E-2</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="22"/>
+        <v>4.8140043763676151E-2</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="23"/>
+        <v>0.10940919037199125</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="24"/>
+        <v>0.21225382932166301</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="25"/>
+        <v>0.3172866520787746</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="26"/>
+        <v>0.22100656455142231</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="27"/>
+        <v>2.78692523478473E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -11396,13 +12924,45 @@
       <c r="P67">
         <v>109</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <f t="shared" si="20"/>
+        <v>1.0245901639344262E-2</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="21"/>
+        <v>4.3032786885245901E-2</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="22"/>
+        <v>4.7131147540983603E-2</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="23"/>
+        <v>9.0163934426229511E-2</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="24"/>
+        <v>0.18237704918032788</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="25"/>
+        <v>0.29303278688524592</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="26"/>
+        <v>0.22336065573770492</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="27"/>
+        <v>2.7555053642010163E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J70" s="1" t="s">
         <v>36</v>
       </c>
@@ -11413,7 +12973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>49</v>
       </c>
@@ -11460,7 +13020,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>19308.2</v>
       </c>
@@ -11507,7 +13067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>18037.599999999999</v>
       </c>
@@ -11554,7 +13114,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>20021.599999999999</v>
       </c>
@@ -11601,7 +13161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>17852.8</v>
       </c>
@@ -11648,7 +13208,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>19825</v>
       </c>
@@ -11695,7 +13255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>18605</v>
       </c>
@@ -11742,7 +13302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>19842.990000000002</v>
       </c>
@@ -11789,7 +13349,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>14927</v>
       </c>
@@ -11836,7 +13396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>12498.2</v>
       </c>
